--- a/Technology/Software/Automatic Data Processing.xlsx
+++ b/Technology/Software/Automatic Data Processing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B90E11-6CFB-C741-9B1A-6485EC959A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD30D2B-5708-F24B-8FDA-7CFE0B3A7058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -567,17 +570,24 @@
   <si>
     <t>Forward P/FCF</t>
   </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -746,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -852,62 +862,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -924,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -967,76 +924,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
@@ -1044,32 +943,78 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,9 +1067,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ADP</a:t>
+              <a:t>Automatic</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Data Processing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1161,10 +1110,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4482644628099179E-2"/>
-          <c:y val="0.12523351997594737"/>
-          <c:w val="0.86659173553719004"/>
-          <c:h val="0.72218409265624561"/>
+          <c:x val="8.5522240527182866E-2"/>
+          <c:y val="0.15086469585333967"/>
+          <c:w val="0.85253377265238883"/>
+          <c:h val="0.61635722849104457"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1218,6 +1167,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
@@ -1340,7 +1409,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED6D-6F45-A1E2-2C0B84AF192D}"/>
+              <c16:uniqueId val="{00000000-06F8-5E44-9F2D-AA98F4DB201C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1349,11 +1418,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1391,129 +1460,249 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AL$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>294100000</c:v>
+                  <c:v>106000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>324100000</c:v>
+                  <c:v>132000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>362000000</c:v>
+                  <c:v>170300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>395400000</c:v>
+                  <c:v>187600000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398800000</c:v>
+                  <c:v>211700000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>414100000</c:v>
+                  <c:v>227700000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>457700000</c:v>
+                  <c:v>256200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>526800000</c:v>
+                  <c:v>294200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>589800000</c:v>
+                  <c:v>329300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>706800000</c:v>
+                  <c:v>394800000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>837000000</c:v>
+                  <c:v>454700000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>947400000</c:v>
+                  <c:v>513500000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1128800000</c:v>
+                  <c:v>605300000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1357300000</c:v>
+                  <c:v>696800000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1573882000</c:v>
+                  <c:v>840800000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1845866000</c:v>
+                  <c:v>924720000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2066047000</c:v>
+                  <c:v>1100770000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1919882000</c:v>
+                  <c:v>1018150000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1931224000</c:v>
+                  <c:v>935570000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2102300000</c:v>
+                  <c:v>1055400000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2588600000</c:v>
+                  <c:v>1554000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2070300000</c:v>
+                  <c:v>1138700000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2247800000</c:v>
+                  <c:v>1235700000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2250500000</c:v>
+                  <c:v>1332600000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2185100000</c:v>
+                  <c:v>1211400000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2259500000</c:v>
+                  <c:v>1254200000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2453100000</c:v>
+                  <c:v>1388500000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2452100000</c:v>
+                  <c:v>1405800000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2630200000</c:v>
+                  <c:v>1515900000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2431100000</c:v>
+                  <c:v>1452500000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2578600000</c:v>
+                  <c:v>1492500000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2927200000</c:v>
+                  <c:v>1733400000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2651400000</c:v>
+                  <c:v>1620800000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3544500000</c:v>
+                  <c:v>2292800000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3769700000</c:v>
+                  <c:v>2466500000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3931600000</c:v>
+                  <c:v>2598500000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4401100000</c:v>
+                  <c:v>2948900000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ED6D-6F45-A1E2-2C0B84AF192D}"/>
+              <c16:uniqueId val="{00000001-06F8-5E44-9F2D-AA98F4DB201C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1564,6 +1753,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
@@ -1686,7 +1995,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ED6D-6F45-A1E2-2C0B84AF192D}"/>
+              <c16:uniqueId val="{00000002-06F8-5E44-9F2D-AA98F4DB201C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1700,11 +2009,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1872329359"/>
-        <c:axId val="1872322191"/>
+        <c:axId val="1394145887"/>
+        <c:axId val="1394147615"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1872329359"/>
+        <c:axId val="1394145887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +2041,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1744,7 +2053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872322191"/>
+        <c:crossAx val="1394147615"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +2061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1872322191"/>
+        <c:axId val="1394147615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +2109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872329359"/>
+        <c:crossAx val="1394145887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1818,10 +2127,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36121236415695968"/>
-          <c:y val="0.91743789853925861"/>
-          <c:w val="0.28021989978525413"/>
-          <c:h val="5.2076229881875248E-2"/>
+          <c:x val="0.34230876000466998"/>
+          <c:y val="0.90972148756845339"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="6.2734518552434199E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2401,22 +2710,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD941210-D40F-1373-4E73-B165A8B8EA25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDA38E7-0936-582A-9FAD-5FD31A8329EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,6 +2744,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2559,9 +2922,9 @@
     <v>Powered by Refinitiv</v>
     <v>274.92</v>
     <v>201.46</v>
-    <v>0.8155</v>
-    <v>-0.16</v>
-    <v>-7.2539999999999996E-4</v>
+    <v>0.8135</v>
+    <v>-1.39</v>
+    <v>-6.1399999999999996E-3</v>
     <v>USD</v>
     <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. It serves over 990,000 clients in 140 countries and territories.</v>
     <v>60000</v>
@@ -2569,24 +2932,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Adp Boulvard, ROSELAND, NJ, 07068 US</v>
-    <v>222.27</v>
+    <v>228.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.965414941405</v>
+    <v>45119.985934200784</v>
     <v>0</v>
-    <v>218.83</v>
-    <v>91052265120</v>
+    <v>224.37</v>
+    <v>92948498772</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
-    <v>220.15</v>
-    <v>28.156700000000001</v>
-    <v>220.56</v>
-    <v>220.4</v>
+    <v>228.88</v>
+    <v>28.743099999999998</v>
+    <v>226.38</v>
+    <v>224.99</v>
     <v>413122800</v>
     <v>ADP</v>
     <v>AUTOMATIC DATA PROCESSING, INC. (XNAS:ADP)</v>
-    <v>1</v>
-    <v>1923931</v>
+    <v>1368771</v>
+    <v>1591270</v>
     <v>1961</v>
   </rv>
   <rv s="2">
@@ -3156,10 +3519,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL110" sqref="AL110"/>
+      <selection pane="bottomRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3286,19 +3649,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="28">
+      <c r="AM1" s="24">
         <v>2023</v>
       </c>
-      <c r="AN1" s="28">
+      <c r="AN1" s="24">
         <v>2024</v>
       </c>
-      <c r="AO1" s="28">
+      <c r="AO1" s="24">
         <v>2025</v>
       </c>
-      <c r="AP1" s="28">
+      <c r="AP1" s="24">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="28">
+      <c r="AQ1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -3544,20 +3907,20 @@
       <c r="AL3" s="1">
         <v>16046500000</v>
       </c>
-      <c r="AM3" s="29">
-        <v>17927000000</v>
-      </c>
-      <c r="AN3" s="29">
-        <v>18979000000</v>
-      </c>
-      <c r="AO3" s="29">
-        <v>20116000000</v>
-      </c>
-      <c r="AP3" s="29">
-        <v>21095000000</v>
-      </c>
-      <c r="AQ3" s="29">
-        <v>22232000000</v>
+      <c r="AM3" s="25">
+        <v>17925000000</v>
+      </c>
+      <c r="AN3" s="25">
+        <v>19185000000</v>
+      </c>
+      <c r="AO3" s="25">
+        <v>20383000000</v>
+      </c>
+      <c r="AP3" s="25">
+        <v>21774000000</v>
+      </c>
+      <c r="AQ3" s="25">
+        <v>22698000000</v>
       </c>
       <c r="AR3" s="18" t="s">
         <v>108</v>
@@ -3577,169 +3940,169 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="66">
         <f>(C3/B3)-1</f>
         <v>0.14947683109118093</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="66">
         <f>(D3/C3)-1</f>
         <v>0.11920242739488507</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="66">
         <f>(E3/D3)-1</f>
         <v>8.2946036664084621E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="66">
         <f t="shared" ref="F4:AQ4" si="0">(F3/E3)-1</f>
         <v>2.1636764618227389E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="66">
         <f t="shared" si="0"/>
         <v>3.3722287047841304E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="66">
         <f t="shared" si="0"/>
         <v>9.5270346540241579E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="66">
         <f t="shared" si="0"/>
         <v>0.14572812532206525</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="66">
         <f t="shared" si="0"/>
         <v>0.11046145542862273</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="66">
         <f t="shared" si="0"/>
         <v>0.17201296071283911</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="66">
         <f t="shared" si="0"/>
         <v>0.23253965511283137</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="66">
         <f t="shared" si="0"/>
         <v>0.15297482195928902</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="66">
         <f t="shared" si="0"/>
         <v>0.16679636204464754</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="66">
         <f t="shared" si="0"/>
         <v>0.15464454679977502</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="66">
         <f t="shared" si="0"/>
         <v>7.1987148246421606E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="66">
         <f t="shared" si="0"/>
         <v>0.18162472747551917</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="66">
         <f t="shared" si="0"/>
         <v>-1.8962404365043817E-3</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="66">
         <f t="shared" si="0"/>
         <v>2.0381016532360352E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="66">
         <f t="shared" si="0"/>
         <v>8.5059962778876841E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="66">
         <f t="shared" si="0"/>
         <v>9.6036566101977305E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="66">
         <f t="shared" si="0"/>
         <v>4.4919232443497936E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="66">
         <f t="shared" si="0"/>
         <v>-0.12176997128863365</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="66">
         <f t="shared" si="0"/>
         <v>0.1251923076923076</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="66">
         <f t="shared" si="0"/>
         <v>1.0323021705691326E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="66">
         <f t="shared" si="0"/>
         <v>6.8342524613458355E-3</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="66">
         <f t="shared" si="0"/>
         <v>4.611490081431957E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="66">
         <f t="shared" si="0"/>
         <v>0.14195772747713975</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="66">
         <f t="shared" si="0"/>
         <v>6.0467689307279748E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="66">
         <f t="shared" si="0"/>
         <v>7.9256593664070119E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="66">
         <f t="shared" si="0"/>
         <v>-0.10387908081759722</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="66">
         <f t="shared" si="0"/>
         <v>6.6672761347533971E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="66">
         <f t="shared" si="0"/>
         <v>6.1022643514629937E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="66">
         <f t="shared" si="0"/>
         <v>7.641480476259721E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="66">
         <f t="shared" si="0"/>
         <v>6.3741013672725E-2</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="66">
         <f t="shared" si="0"/>
         <v>2.9248264574750271E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="66">
         <f t="shared" si="0"/>
         <v>2.8485654361266155E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="66">
         <f t="shared" si="0"/>
         <v>6.9381689258533497E-2</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11719066463091643</v>
+        <v>0.11706602685943968</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>5.8682434316952081E-2</v>
+        <v>7.0292887029288709E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>5.9908319721797776E-2</v>
+        <v>6.2444618191295209E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>4.8667727182342357E-2</v>
+        <v>6.824314379630092E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>5.3899028205735888E-2</v>
+        <v>4.2435932763846829E-2</v>
       </c>
       <c r="AR4" s="17">
         <f>(AL4+AK4+AJ4)/3</f>
@@ -5319,21 +5682,21 @@
       <c r="AL16" s="1">
         <v>12695100000</v>
       </c>
-      <c r="AR16" s="30">
+      <c r="AR16" s="26">
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-1.3316596842701769E-2</v>
       </c>
-      <c r="AS16" s="67">
+      <c r="AS16" s="39">
         <f>AT101/AL3</f>
-        <v>5.674275706228773</v>
-      </c>
-      <c r="AT16" s="67">
+        <v>5.7924468745209232</v>
+      </c>
+      <c r="AT16" s="39">
         <f>AT101/AL28</f>
-        <v>30.876687958221709</v>
-      </c>
-      <c r="AU16" s="68">
+        <v>31.519718800908812</v>
+      </c>
+      <c r="AU16" s="40">
         <f>AT101/AL107</f>
-        <v>35.761464640037701</v>
+        <v>36.506224724873334</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5695,36 +6058,36 @@
       <c r="AL19" s="10">
         <v>4401100000</v>
       </c>
-      <c r="AM19" s="62">
+      <c r="AM19" s="34">
         <v>4938000000</v>
       </c>
-      <c r="AN19" s="62">
-        <v>5373000000</v>
-      </c>
-      <c r="AO19" s="62">
-        <v>5899000000</v>
-      </c>
-      <c r="AP19" s="62">
-        <v>6167000000</v>
-      </c>
-      <c r="AQ19" s="62">
-        <v>6574000000</v>
-      </c>
-      <c r="AR19" s="31">
+      <c r="AN19" s="34">
+        <v>5468000000</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>5908000000</v>
+      </c>
+      <c r="AP19" s="34">
+        <v>6348000000</v>
+      </c>
+      <c r="AQ19" s="34">
+        <v>6744000000</v>
+      </c>
+      <c r="AR19" s="27">
         <f>AL40-AL56-AL61</f>
         <v>-2058100000</v>
       </c>
-      <c r="AS19" s="67">
+      <c r="AS19" s="39">
         <f>AT101/AM3</f>
-        <v>5.0790575734924976</v>
-      </c>
-      <c r="AT19" s="67">
+        <v>5.1854113680334732</v>
+      </c>
+      <c r="AT19" s="39">
         <f>AT101/AM28</f>
-        <v>26.86700062555326</v>
-      </c>
-      <c r="AU19" s="68">
+        <v>27.418436215929205</v>
+      </c>
+      <c r="AU19" s="40">
         <f>AT101/AM106</f>
-        <v>23.382708043143296</v>
+        <v>23.869670973805857</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5882,22 +6245,22 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" ref="AN20" si="5">(AN19/AM19)-1</f>
-        <v>8.809234507897945E-2</v>
+        <v>0.10733090319967609</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" ref="AO20" si="6">(AO19/AN19)-1</f>
-        <v>9.7896891866741109E-2</v>
+        <v>8.0468178493050546E-2</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" ref="AP20" si="7">(AP19/AO19)-1</f>
-        <v>4.5431429055772243E-2</v>
+        <v>7.4475287745429997E-2</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" ref="AQ20" si="8">(AQ19/AP19)-1</f>
-        <v>6.5996432625263557E-2</v>
+        <v>6.2381852551984807E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6012,25 +6375,31 @@
       <c r="AL21" s="2">
         <v>0.27429999999999999</v>
       </c>
-      <c r="AM21" s="63">
+      <c r="AM21" s="35">
         <f>AM19/AM3</f>
-        <v>0.27545043788698609</v>
-      </c>
-      <c r="AN21" s="63">
+        <v>0.27548117154811713</v>
+      </c>
+      <c r="AN21" s="35">
         <f t="shared" ref="AN21:AQ21" si="9">AN19/AN3</f>
-        <v>0.28310237631065915</v>
-      </c>
-      <c r="AO21" s="63">
+        <v>0.28501433411519417</v>
+      </c>
+      <c r="AO21" s="35">
         <f t="shared" si="9"/>
-        <v>0.29324915490157089</v>
-      </c>
-      <c r="AP21" s="63">
+        <v>0.28984938429083057</v>
+      </c>
+      <c r="AP21" s="35">
         <f t="shared" si="9"/>
-        <v>0.29234415738326619</v>
-      </c>
-      <c r="AQ21" s="63">
+        <v>0.29154036924772664</v>
+      </c>
+      <c r="AQ21" s="35">
         <f t="shared" si="9"/>
-        <v>0.29569989204749908</v>
+        <v>0.29711868887126619</v>
+      </c>
+      <c r="AT21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6149,6 +6518,14 @@
         <v>3351400000</v>
       </c>
       <c r="AM22" s="22"/>
+      <c r="AT22" s="42">
+        <f>AL98/AT101*-1</f>
+        <v>1.7848593811821311E-2</v>
+      </c>
+      <c r="AU22" s="41">
+        <f>AL107/AT101</f>
+        <v>2.7392588730728296E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6845,20 +7222,20 @@
       <c r="AL28" s="11">
         <v>2948900000</v>
       </c>
-      <c r="AM28" s="64">
-        <v>3389000000</v>
-      </c>
-      <c r="AN28" s="64">
-        <v>3699000000</v>
-      </c>
-      <c r="AO28" s="64">
-        <v>4021000000</v>
-      </c>
-      <c r="AP28" s="64">
-        <v>4208000000</v>
-      </c>
-      <c r="AQ28" s="64">
-        <v>4569000000</v>
+      <c r="AM28" s="36">
+        <v>3390000000</v>
+      </c>
+      <c r="AN28" s="36">
+        <v>3763000000</v>
+      </c>
+      <c r="AO28" s="36">
+        <v>4022000000</v>
+      </c>
+      <c r="AP28" s="36">
+        <v>4446000000</v>
+      </c>
+      <c r="AQ28" s="36">
+        <v>4711000000</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7012,23 +7389,23 @@
       </c>
       <c r="AM29" s="16">
         <f t="shared" ref="AM29" si="11">(AM28/AL28)-1</f>
-        <v>0.14924209027094859</v>
+        <v>0.14958119976940565</v>
       </c>
       <c r="AN29" s="16">
         <f t="shared" ref="AN29" si="12">(AN28/AM28)-1</f>
-        <v>9.1472410740631505E-2</v>
+        <v>0.11002949852507382</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" ref="AO29" si="13">(AO28/AN28)-1</f>
-        <v>8.7050554203838892E-2</v>
+        <v>6.8828062715918126E-2</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" ref="AP29" si="14">(AP28/AO28)-1</f>
-        <v>4.6505844317334066E-2</v>
+        <v>0.10542018896071603</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" ref="AQ29" si="15">(AQ28/AP28)-1</f>
-        <v>8.5788973384030465E-2</v>
+        <v>5.9604138551506924E-2</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7146,25 +7523,25 @@
       <c r="AL30" s="2">
         <v>0.18379999999999999</v>
       </c>
-      <c r="AM30" s="65">
+      <c r="AM30" s="37">
         <f>AM28/AM3</f>
-        <v>0.18904445807999107</v>
-      </c>
-      <c r="AN30" s="65">
+        <v>0.1891213389121339</v>
+      </c>
+      <c r="AN30" s="37">
         <f t="shared" ref="AN30:AQ30" si="16">AN28/AN3</f>
-        <v>0.19489962590231308</v>
-      </c>
-      <c r="AO30" s="65">
+        <v>0.1961428199113891</v>
+      </c>
+      <c r="AO30" s="37">
         <f t="shared" si="16"/>
-        <v>0.19989063432093856</v>
-      </c>
-      <c r="AP30" s="65">
+        <v>0.19732129715939753</v>
+      </c>
+      <c r="AP30" s="37">
         <f t="shared" si="16"/>
-        <v>0.19947854941929366</v>
-      </c>
-      <c r="AQ30" s="65">
+        <v>0.20418848167539266</v>
+      </c>
+      <c r="AQ30" s="37">
         <f t="shared" si="16"/>
-        <v>0.20551457358762146</v>
+        <v>0.20755132610802715</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7282,20 +7659,20 @@
       <c r="AL31" s="12">
         <v>6.92</v>
       </c>
-      <c r="AM31" s="66">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AN31" s="66">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="AO31" s="66">
-        <v>9.73</v>
-      </c>
-      <c r="AP31" s="66">
-        <v>10.19</v>
-      </c>
-      <c r="AQ31" s="66">
-        <v>11.06</v>
+      <c r="AM31" s="38">
+        <v>8.23</v>
+      </c>
+      <c r="AN31" s="38">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="AO31" s="38">
+        <v>9.76</v>
+      </c>
+      <c r="AP31" s="38">
+        <v>10.79</v>
+      </c>
+      <c r="AQ31" s="38">
+        <v>11.43</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -13400,10 +13777,10 @@
       <c r="AL83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS83" s="71" t="s">
+      <c r="AS83" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="AT83" s="72"/>
+      <c r="AT83" s="69"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13520,10 +13897,10 @@
       <c r="AL84" s="1">
         <v>-16400000</v>
       </c>
-      <c r="AS84" s="73" t="s">
+      <c r="AS84" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="AT84" s="74"/>
+      <c r="AT84" s="70"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13640,10 +14017,10 @@
       <c r="AL85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS85" s="24" t="s">
+      <c r="AS85" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AT85" s="25">
+      <c r="AT85" s="44">
         <f>AL17</f>
         <v>81900000</v>
       </c>
@@ -13763,10 +14140,10 @@
       <c r="AL86" s="1">
         <v>1035500000</v>
       </c>
-      <c r="AS86" s="24" t="s">
+      <c r="AS86" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="AT86" s="25">
+      <c r="AT86" s="44">
         <f>AL56</f>
         <v>136400000</v>
       </c>
@@ -13886,10 +14263,10 @@
       <c r="AL87" s="10">
         <v>3099500000</v>
       </c>
-      <c r="AS87" s="24" t="s">
+      <c r="AS87" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AT87" s="25">
+      <c r="AT87" s="44">
         <f>AL61</f>
         <v>3358000000</v>
       </c>
@@ -14009,10 +14386,10 @@
       <c r="AL88" s="1">
         <v>-177100000</v>
       </c>
-      <c r="AS88" s="32" t="s">
+      <c r="AS88" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="AT88" s="33">
+      <c r="AT88" s="46">
         <f>AT85/(AT86+AT87)</f>
         <v>2.34375E-2</v>
       </c>
@@ -14169,10 +14546,10 @@
         <f t="shared" si="19"/>
         <v>1.1036674664257003E-2</v>
       </c>
-      <c r="AS89" s="24" t="s">
+      <c r="AS89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AT89" s="25">
+      <c r="AT89" s="44">
         <f>AL27</f>
         <v>855200000</v>
       </c>
@@ -14292,10 +14669,10 @@
       <c r="AL90" s="1">
         <v>-11700000</v>
       </c>
-      <c r="AS90" s="24" t="s">
+      <c r="AS90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="25">
+      <c r="AT90" s="44">
         <f>AL25</f>
         <v>3804100000</v>
       </c>
@@ -14415,10 +14792,10 @@
       <c r="AL91" s="1">
         <v>-10733200000</v>
       </c>
-      <c r="AS91" s="32" t="s">
+      <c r="AS91" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="AT91" s="33">
+      <c r="AT91" s="46">
         <f>AT89/AT90</f>
         <v>0.22481007334192055</v>
       </c>
@@ -14538,10 +14915,10 @@
       <c r="AL92" s="1">
         <v>4249700000</v>
       </c>
-      <c r="AS92" s="34" t="s">
+      <c r="AS92" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="AT92" s="35">
+      <c r="AT92" s="46">
         <f>AT88*(1-AT91)</f>
         <v>1.816851390604874E-2</v>
       </c>
@@ -14661,10 +15038,10 @@
       <c r="AL93" s="1">
         <v>-519200000</v>
       </c>
-      <c r="AS93" s="73" t="s">
+      <c r="AS93" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="AT93" s="74"/>
+      <c r="AT93" s="70"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14781,11 +15158,12 @@
       <c r="AL94" s="10">
         <v>-7014400000</v>
       </c>
-      <c r="AS94" s="24" t="s">
+      <c r="AS94" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="AT94" s="36">
-        <v>4.095E-2</v>
+      <c r="AT94" s="65">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14903,12 +15281,12 @@
       <c r="AL95" s="1">
         <v>-900000</v>
       </c>
-      <c r="AS95" s="37" t="s">
+      <c r="AS95" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AT95" s="38" cm="1">
+      <c r="AT95" s="49" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.8155</v>
+        <v>0.8135</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15026,10 +15404,10 @@
       <c r="AL96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS96" s="24" t="s">
+      <c r="AS96" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="AT96" s="36">
+      <c r="AT96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15148,12 +15526,12 @@
       <c r="AL97" s="1">
         <v>-1969400000</v>
       </c>
-      <c r="AS97" s="34" t="s">
+      <c r="AS97" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="AT97" s="35">
+      <c r="AT97" s="46">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>7.6057275000000008E-2</v>
+        <v>7.562988000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15271,10 +15649,10 @@
       <c r="AL98" s="1">
         <v>-1659000000</v>
       </c>
-      <c r="AS98" s="73" t="s">
+      <c r="AS98" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="AT98" s="74"/>
+      <c r="AT98" s="70"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15391,10 +15769,10 @@
       <c r="AL99" s="1">
         <v>17282700000</v>
       </c>
-      <c r="AS99" s="24" t="s">
+      <c r="AS99" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="AT99" s="25">
+      <c r="AT99" s="44">
         <f>AT86+AT87</f>
         <v>3494400000</v>
       </c>
@@ -15514,12 +15892,12 @@
       <c r="AL100" s="10">
         <v>13653400000</v>
       </c>
-      <c r="AS100" s="32" t="s">
+      <c r="AS100" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="AT100" s="33">
+      <c r="AT100" s="46">
         <f>AT99/AT103</f>
-        <v>3.6959526764533228E-2</v>
+        <v>3.6232838752193533E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15637,12 +16015,12 @@
       <c r="AL101" s="1">
         <v>-98700000</v>
       </c>
-      <c r="AS101" s="37" t="s">
+      <c r="AS101" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AT101" s="39" cm="1">
+      <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>91052265120</v>
+        <v>92948498772</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15760,12 +16138,12 @@
       <c r="AL102" s="10">
         <v>9639800000</v>
       </c>
-      <c r="AS102" s="32" t="s">
+      <c r="AS102" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="AT102" s="33">
+      <c r="AT102" s="46">
         <f>AT101/AT103</f>
-        <v>0.96304047323546682</v>
+        <v>0.96376716124780648</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15883,12 +16261,12 @@
       <c r="AL103" s="1">
         <v>13143200000</v>
       </c>
-      <c r="AS103" s="34" t="s">
+      <c r="AS103" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AT103" s="40">
+      <c r="AT103" s="51">
         <f>AT99+AT101</f>
-        <v>94546665120</v>
+        <v>96442898772</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16006,13 +16384,13 @@
       <c r="AL104" s="11">
         <v>22783000000</v>
       </c>
-      <c r="AS104" s="73" t="s">
+      <c r="AS104" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="AT104" s="74"/>
+      <c r="AT104" s="70"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="31" t="s">
         <v>158</v>
       </c>
       <c r="B105" s="1"/>
@@ -16154,39 +16532,39 @@
         <f>((AL22*(1-$AT$91))+AL77+AL88-AL81)</f>
         <v>4574271520.2018871</v>
       </c>
-      <c r="AM105" s="41">
+      <c r="AM105" s="28">
         <f>AL105*(1+$AT$106)</f>
-        <v>4883810803.5028172</v>
-      </c>
-      <c r="AN105" s="41">
+        <v>4904060586.2480507</v>
+      </c>
+      <c r="AN105" s="28">
         <f>AM105*(1+$AT$106)</f>
-        <v>5214296497.0645494</v>
-      </c>
-      <c r="AO105" s="41">
+        <v>5257626296.8600798</v>
+      </c>
+      <c r="AO105" s="28">
         <f t="shared" ref="AO105:AQ105" si="21">AN105*(1+$AT$106)</f>
-        <v>5567146036.8200464</v>
-      </c>
-      <c r="AP105" s="41">
+        <v>5636682865.4095373</v>
+      </c>
+      <c r="AP105" s="28">
         <f t="shared" si="21"/>
-        <v>5943872776.0742207</v>
-      </c>
-      <c r="AQ105" s="41">
+        <v>6043068094.0895748</v>
+      </c>
+      <c r="AQ105" s="28">
         <f t="shared" si="21"/>
-        <v>6346092476.1974707</v>
-      </c>
-      <c r="AR105" s="42" t="s">
+        <v>6478752284.2390947</v>
+      </c>
+      <c r="AR105" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AS105" s="26" t="s">
+      <c r="AS105" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="AT105" s="27">
+      <c r="AT105" s="53">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.3917733784982453E-2</v>
+        <v>7.3547891587837116E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="15" t="e">
@@ -16337,34 +16715,34 @@
         <f t="shared" si="22"/>
         <v>-1.5961969544716736E-2</v>
       </c>
-      <c r="AM106" s="61">
+      <c r="AM106" s="33">
         <v>3894000000</v>
       </c>
-      <c r="AN106" s="61">
-        <v>4165000000</v>
-      </c>
-      <c r="AO106" s="61">
-        <v>4564000000</v>
-      </c>
-      <c r="AP106" s="61">
-        <v>4759000000</v>
-      </c>
-      <c r="AQ106" s="61">
-        <v>5092000000</v>
-      </c>
-      <c r="AR106" s="42" t="s">
+      <c r="AN106" s="33">
+        <v>4276000000</v>
+      </c>
+      <c r="AO106" s="33">
+        <v>4613000000</v>
+      </c>
+      <c r="AP106" s="33">
+        <v>4913000000</v>
+      </c>
+      <c r="AQ106" s="33">
+        <v>5276000000</v>
+      </c>
+      <c r="AR106" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AS106" s="43" t="s">
+      <c r="AS106" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AT106" s="44">
+      <c r="AT106" s="55">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>6.7669634811548904E-2</v>
+        <v>7.2096521728034269E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="31" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16478,139 +16856,139 @@
       <c r="AL107" s="1">
         <v>2546100000</v>
       </c>
-      <c r="AM107" s="42"/>
-      <c r="AN107" s="42"/>
-      <c r="AO107" s="42"/>
-      <c r="AP107" s="42"/>
-      <c r="AQ107" s="60">
+      <c r="AM107" s="29"/>
+      <c r="AN107" s="29"/>
+      <c r="AO107" s="29"/>
+      <c r="AP107" s="29"/>
+      <c r="AQ107" s="32">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>106695457785.13362</v>
-      </c>
-      <c r="AR107" s="46" t="s">
+        <v>111393097066.13214</v>
+      </c>
+      <c r="AR107" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="AS107" s="47" t="s">
+      <c r="AS107" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AT107" s="48">
+      <c r="AT107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="45">
-        <f>AM107+AM105</f>
-        <v>4883810803.5028172</v>
-      </c>
-      <c r="AN108" s="45">
-        <f>AN107+AN105</f>
-        <v>5214296497.0645494</v>
-      </c>
-      <c r="AO108" s="45">
-        <f>AO107+AO105</f>
-        <v>5567146036.8200464</v>
-      </c>
-      <c r="AP108" s="45">
-        <f>AP107+AP105</f>
-        <v>5943872776.0742207</v>
-      </c>
-      <c r="AQ108" s="60">
+      <c r="AM108" s="32">
+        <f t="shared" ref="AM108:AP108" si="23">AM107+AM106</f>
+        <v>3894000000</v>
+      </c>
+      <c r="AN108" s="32">
+        <f t="shared" si="23"/>
+        <v>4276000000</v>
+      </c>
+      <c r="AO108" s="32">
+        <f t="shared" si="23"/>
+        <v>4613000000</v>
+      </c>
+      <c r="AP108" s="32">
+        <f t="shared" si="23"/>
+        <v>4913000000</v>
+      </c>
+      <c r="AQ108" s="32">
         <f>AQ107+AQ106</f>
-        <v>111787457785.13362</v>
-      </c>
-      <c r="AR108" s="46" t="s">
+        <v>116669097066.13214</v>
+      </c>
+      <c r="AR108" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="AS108" s="49" t="s">
+      <c r="AS108" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="AT108" s="50">
+      <c r="AT108" s="55">
         <f>AT105</f>
-        <v>7.3917733784982453E-2</v>
+        <v>7.3547891587837116E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="69" t="s">
+      <c r="AM109" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="AN109" s="70"/>
+      <c r="AN109" s="67"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="51" t="s">
+      <c r="AM110" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="AN110" s="39">
+      <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>96292166429.598831</v>
+        <v>96582551352.272308</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="51" t="s">
+      <c r="AM111" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AN111" s="39">
+      <c r="AN111" s="50">
         <f>AL40</f>
         <v>1436300000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="51" t="s">
+      <c r="AM112" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="AN112" s="39">
+      <c r="AN112" s="50">
         <f>AT99</f>
         <v>3494400000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="51" t="s">
+      <c r="AM113" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="AN113" s="39">
+      <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>94234066429.598831</v>
+        <v>94524451352.272308</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="51" t="s">
+      <c r="AM114" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="AN114" s="52">
+      <c r="AN114" s="59">
         <f>AL34*(1+(5*AR16))</f>
         <v>393061905.34769142</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="53" t="s">
+      <c r="AM115" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="AN115" s="54">
+      <c r="AN115" s="61">
         <f>AN113/AN114</f>
-        <v>239.7435751150752</v>
+        <v>240.48235167602584</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="51" t="s">
+      <c r="AM116" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="AN116" s="55" cm="1">
+      <c r="AN116" s="62" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>220.4</v>
+        <v>224.99</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="56" t="s">
+      <c r="AM117" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="AN117" s="57">
+      <c r="AN117" s="63">
         <f>AN115/AN116-1</f>
-        <v>8.7765767309778475E-2</v>
+        <v>6.8857956691523281E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="56" t="s">
+      <c r="AM118" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="AN118" s="58" t="str">
+      <c r="AN118" s="64" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Software/Automatic Data Processing.xlsx
+++ b/Technology/Software/Automatic Data Processing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD30D2B-5708-F24B-8FDA-7CFE0B3A7058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE33969-79C3-4349-9083-6BB0DF1F4E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,7 +574,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -881,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1003,10 +1016,22 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,6 +1041,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,16 +1098,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Automatic</a:t>
+              <a:t>Automatic Data Processing</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> Data Processing</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3197024272792347"/>
+          <c:y val="3.8109201906521888E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1110,15 +1144,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5522240527182866E-2"/>
-          <c:y val="0.15086469585333967"/>
-          <c:w val="0.85253377265238883"/>
-          <c:h val="0.61635722849104457"/>
+          <c:x val="9.2416528925619829E-2"/>
+          <c:y val="0.16795909412280396"/>
+          <c:w val="0.84279008264462807"/>
+          <c:h val="0.61293700071117174"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1169,10 +1203,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -1283,16 +1317,31 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AQ$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1204200000</c:v>
                 </c:pt>
@@ -1403,13 +1452,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>16046500000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17925000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19185000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20383000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21774000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22698000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06F8-5E44-9F2D-AA98F4DB201C}"/>
+              <c16:uniqueId val="{00000000-7FCE-7B4D-8711-7BE54DDAE593}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1462,10 +1526,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -1576,16 +1640,31 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AQ$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>106000000</c:v>
                 </c:pt>
@@ -1696,13 +1775,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2948900000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3390000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3763000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4022000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4446000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4711000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06F8-5E44-9F2D-AA98F4DB201C}"/>
+              <c16:uniqueId val="{00000001-7FCE-7B4D-8711-7BE54DDAE593}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1755,10 +1849,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -1869,16 +1963,31 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AQ$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1989,13 +2098,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2546100000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3894000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4276000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4613000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4913000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5276000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-06F8-5E44-9F2D-AA98F4DB201C}"/>
+              <c16:uniqueId val="{00000002-7FCE-7B4D-8711-7BE54DDAE593}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2007,13 +2131,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1394145887"/>
-        <c:axId val="1394147615"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1269699968"/>
+        <c:axId val="460373664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1394145887"/>
+        <c:axId val="1269699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1394147615"/>
+        <c:crossAx val="460373664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2061,7 +2185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1394147615"/>
+        <c:axId val="460373664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1394145887"/>
+        <c:crossAx val="1269699968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2127,10 +2251,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34230876000466998"/>
-          <c:y val="0.90972148756845339"/>
-          <c:w val="0.31274646188172112"/>
-          <c:h val="6.2734518552434199E-2"/>
+          <c:x val="0.34443209474848702"/>
+          <c:y val="0.90179990383831909"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.0090894255158997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2237,7 +2361,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2475,7 +2599,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2710,22 +2833,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>65087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDA38E7-0936-582A-9FAD-5FD31A8329EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB70EE6E-D46A-74CD-B683-31729B687B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,38 +2876,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2922,34 +3045,37 @@
     <v>Powered by Refinitiv</v>
     <v>274.92</v>
     <v>201.46</v>
-    <v>0.8135</v>
-    <v>-1.39</v>
-    <v>-6.1399999999999996E-3</v>
+    <v>0.82489999999999997</v>
+    <v>-2.1800000000000002</v>
+    <v>-8.7810000000000006E-3</v>
+    <v>0.02</v>
+    <v>8.1269999999999999E-5</v>
     <v>USD</v>
-    <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. It serves over 990,000 clients in 140 countries and territories.</v>
-    <v>60000</v>
+    <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. ADP serves over one million clients in 140 countries and territories.</v>
+    <v>63000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Adp Boulvard, ROSELAND, NJ, 07068 US</v>
-    <v>228.97</v>
+    <v>249.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45119.985934200784</v>
+    <v>45218.958613125003</v>
     <v>0</v>
-    <v>224.37</v>
-    <v>92948498772</v>
+    <v>245.64</v>
+    <v>101378069760</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
-    <v>228.88</v>
-    <v>28.743099999999998</v>
-    <v>226.38</v>
-    <v>224.99</v>
-    <v>413122800</v>
+    <v>248.08</v>
+    <v>29.981100000000001</v>
+    <v>248.26</v>
+    <v>246.08</v>
+    <v>246.1</v>
+    <v>411972000</v>
     <v>ADP</v>
     <v>AUTOMATIC DATA PROCESSING, INC. (XNAS:ADP)</v>
-    <v>1368771</v>
-    <v>1591270</v>
+    <v>1156833</v>
+    <v>1356352</v>
     <v>1961</v>
   </rv>
   <rv s="2">
@@ -2981,6 +3107,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3001,6 +3129,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3017,7 +3146,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3028,13 +3157,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3100,13 +3232,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3151,6 +3289,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3158,6 +3299,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3516,13 +3660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU118"/>
+  <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ24" sqref="AQ24"/>
+      <selection pane="bottomRight" activeCell="AR132" sqref="AR132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3940,147 +4084,147 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="66">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>0.14947683109118093</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>0.11920242739488507</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>8.2946036664084621E-2</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:AQ4" si="0">(F3/E3)-1</f>
         <v>2.1636764618227389E-2</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>3.3722287047841304E-2</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>9.5270346540241579E-2</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>0.14572812532206525</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.11046145542862273</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>0.17201296071283911</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>0.23253965511283137</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="65">
         <f t="shared" si="0"/>
         <v>0.15297482195928902</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="65">
         <f t="shared" si="0"/>
         <v>0.16679636204464754</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="65">
         <f t="shared" si="0"/>
         <v>0.15464454679977502</v>
       </c>
-      <c r="P4" s="66">
+      <c r="P4" s="65">
         <f t="shared" si="0"/>
         <v>7.1987148246421606E-2</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="65">
         <f t="shared" si="0"/>
         <v>0.18162472747551917</v>
       </c>
-      <c r="R4" s="66">
+      <c r="R4" s="65">
         <f t="shared" si="0"/>
         <v>-1.8962404365043817E-3</v>
       </c>
-      <c r="S4" s="66">
+      <c r="S4" s="65">
         <f t="shared" si="0"/>
         <v>2.0381016532360352E-2</v>
       </c>
-      <c r="T4" s="66">
+      <c r="T4" s="65">
         <f t="shared" si="0"/>
         <v>8.5059962778876841E-2</v>
       </c>
-      <c r="U4" s="66">
+      <c r="U4" s="65">
         <f t="shared" si="0"/>
         <v>9.6036566101977305E-2</v>
       </c>
-      <c r="V4" s="66">
+      <c r="V4" s="65">
         <f t="shared" si="0"/>
         <v>4.4919232443497936E-2</v>
       </c>
-      <c r="W4" s="66">
+      <c r="W4" s="65">
         <f t="shared" si="0"/>
         <v>-0.12176997128863365</v>
       </c>
-      <c r="X4" s="66">
+      <c r="X4" s="65">
         <f t="shared" si="0"/>
         <v>0.1251923076923076</v>
       </c>
-      <c r="Y4" s="66">
+      <c r="Y4" s="65">
         <f t="shared" si="0"/>
         <v>1.0323021705691326E-2</v>
       </c>
-      <c r="Z4" s="66">
+      <c r="Z4" s="65">
         <f t="shared" si="0"/>
         <v>6.8342524613458355E-3</v>
       </c>
-      <c r="AA4" s="66">
+      <c r="AA4" s="65">
         <f t="shared" si="0"/>
         <v>4.611490081431957E-2</v>
       </c>
-      <c r="AB4" s="66">
+      <c r="AB4" s="65">
         <f t="shared" si="0"/>
         <v>0.14195772747713975</v>
       </c>
-      <c r="AC4" s="66">
+      <c r="AC4" s="65">
         <f t="shared" si="0"/>
         <v>6.0467689307279748E-2</v>
       </c>
-      <c r="AD4" s="66">
+      <c r="AD4" s="65">
         <f t="shared" si="0"/>
         <v>7.9256593664070119E-2</v>
       </c>
-      <c r="AE4" s="66">
+      <c r="AE4" s="65">
         <f t="shared" si="0"/>
         <v>-0.10387908081759722</v>
       </c>
-      <c r="AF4" s="66">
+      <c r="AF4" s="65">
         <f t="shared" si="0"/>
         <v>6.6672761347533971E-2</v>
       </c>
-      <c r="AG4" s="66">
+      <c r="AG4" s="65">
         <f t="shared" si="0"/>
         <v>6.1022643514629937E-2</v>
       </c>
-      <c r="AH4" s="66">
+      <c r="AH4" s="65">
         <f t="shared" si="0"/>
         <v>7.641480476259721E-2</v>
       </c>
-      <c r="AI4" s="66">
+      <c r="AI4" s="65">
         <f t="shared" si="0"/>
         <v>6.3741013672725E-2</v>
       </c>
-      <c r="AJ4" s="66">
+      <c r="AJ4" s="65">
         <f t="shared" si="0"/>
         <v>2.9248264574750271E-2</v>
       </c>
-      <c r="AK4" s="66">
+      <c r="AK4" s="65">
         <f t="shared" si="0"/>
         <v>2.8485654361266155E-2</v>
       </c>
-      <c r="AL4" s="66">
+      <c r="AL4" s="65">
         <f t="shared" si="0"/>
         <v>6.9381689258533497E-2</v>
       </c>
@@ -4352,16 +4496,20 @@
       <c r="AL6" s="10">
         <v>6584600000</v>
       </c>
-      <c r="AR6" s="18" t="s">
+      <c r="AM6" s="34">
+        <f>AM3*AM7</f>
+        <v>7422742500</v>
+      </c>
+      <c r="AR6" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AS6" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="71" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4480,21 +4628,24 @@
       <c r="AL7" s="2">
         <v>0.4103</v>
       </c>
+      <c r="AM7" s="2">
+        <v>0.41410000000000002</v>
+      </c>
       <c r="AR7" s="17">
-        <f>AL7</f>
-        <v>0.4103</v>
+        <f>AM7</f>
+        <v>0.41410000000000002</v>
       </c>
       <c r="AS7" s="20">
-        <f>AL21</f>
-        <v>0.27429999999999999</v>
+        <f>AM21</f>
+        <v>0.27548117154811713</v>
       </c>
       <c r="AT7" s="20">
-        <f>AL30</f>
-        <v>0.18379999999999999</v>
+        <f>AM30</f>
+        <v>0.1891213389121339</v>
       </c>
       <c r="AU7" s="20">
-        <f>AL107/AL3</f>
-        <v>0.15867011497834418</v>
+        <f>AM107/AM3</f>
+        <v>0.21723849372384937</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5687,16 +5838,16 @@
         <v>-1.3316596842701769E-2</v>
       </c>
       <c r="AS16" s="39">
-        <f>AT101/AL3</f>
-        <v>5.7924468745209232</v>
+        <f>AT102/AL3</f>
+        <v>6.3177683457451783</v>
       </c>
       <c r="AT16" s="39">
-        <f>AT101/AL28</f>
-        <v>31.519718800908812</v>
+        <f>AT102/AL28</f>
+        <v>34.378266390857611</v>
       </c>
       <c r="AU16" s="40">
-        <f>AT101/AL107</f>
-        <v>36.506224724873334</v>
+        <f>AT102/AL107</f>
+        <v>39.817002380110758</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6078,16 +6229,16 @@
         <v>-2058100000</v>
       </c>
       <c r="AS19" s="39">
-        <f>AT101/AM3</f>
-        <v>5.1854113680334732</v>
+        <f>AT102/AM3</f>
+        <v>5.6556803213389122</v>
       </c>
       <c r="AT19" s="39">
-        <f>AT101/AM28</f>
-        <v>27.418436215929205</v>
+        <f>AT102/AM28</f>
+        <v>29.905035327433627</v>
       </c>
       <c r="AU19" s="40">
-        <f>AT101/AM106</f>
-        <v>23.869670973805857</v>
+        <f>AT102/AM107</f>
+        <v>26.034429830508476</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6395,11 +6546,14 @@
         <f t="shared" si="9"/>
         <v>0.29711868887126619</v>
       </c>
+      <c r="AS21" s="69" t="s">
+        <v>167</v>
+      </c>
       <c r="AT21" s="18" t="s">
         <v>165</v>
       </c>
       <c r="AU21" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6518,13 +6672,17 @@
         <v>3351400000</v>
       </c>
       <c r="AM22" s="22"/>
+      <c r="AS22" s="17">
+        <f>SUM(AM29:AQ29)/5</f>
+        <v>9.8692617704524116E-2</v>
+      </c>
       <c r="AT22" s="42">
-        <f>AL98/AT101*-1</f>
-        <v>1.7848593811821311E-2</v>
+        <f>AL98/AT102*-1</f>
+        <v>1.6364485967502406E-2</v>
       </c>
       <c r="AU22" s="41">
-        <f>AL107/AT101</f>
-        <v>2.7392588730728296E-2</v>
+        <f>AM107/AT102</f>
+        <v>3.8410674115403477E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -13662,7 +13820,7 @@
         <v>-486500000</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13777,12 +13935,8 @@
       <c r="AL83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS83" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT83" s="69"/>
     </row>
-    <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -13897,12 +14051,12 @@
       <c r="AL84" s="1">
         <v>-16400000</v>
       </c>
-      <c r="AS84" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT84" s="70"/>
+      <c r="AS84" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT84" s="73"/>
     </row>
-    <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -14017,13 +14171,10 @@
       <c r="AL85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS85" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT85" s="44">
-        <f>AL17</f>
-        <v>81900000</v>
-      </c>
+      <c r="AS85" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT85" s="74"/>
     </row>
     <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14141,11 +14292,11 @@
         <v>1035500000</v>
       </c>
       <c r="AS86" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT86" s="44">
-        <f>AL56</f>
-        <v>136400000</v>
+        <f>AL17</f>
+        <v>81900000</v>
       </c>
     </row>
     <row r="87" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14264,11 +14415,11 @@
         <v>3099500000</v>
       </c>
       <c r="AS87" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT87" s="44">
-        <f>AL61</f>
-        <v>3358000000</v>
+        <f>AL56</f>
+        <v>136400000</v>
       </c>
     </row>
     <row r="88" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14386,12 +14537,12 @@
       <c r="AL88" s="1">
         <v>-177100000</v>
       </c>
-      <c r="AS88" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT88" s="46">
-        <f>AT85/(AT86+AT87)</f>
-        <v>2.34375E-2</v>
+      <c r="AS88" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT88" s="44">
+        <f>AL61</f>
+        <v>3358000000</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14546,12 +14697,12 @@
         <f t="shared" si="19"/>
         <v>1.1036674664257003E-2</v>
       </c>
-      <c r="AS89" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT89" s="44">
-        <f>AL27</f>
-        <v>855200000</v>
+      <c r="AS89" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT89" s="46">
+        <f>AT86/(AT87+AT88)</f>
+        <v>2.34375E-2</v>
       </c>
     </row>
     <row r="90" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14670,11 +14821,11 @@
         <v>-11700000</v>
       </c>
       <c r="AS90" s="43" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="AT90" s="44">
-        <f>AL25</f>
-        <v>3804100000</v>
+        <f>AL27</f>
+        <v>855200000</v>
       </c>
     </row>
     <row r="91" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14792,12 +14943,12 @@
       <c r="AL91" s="1">
         <v>-10733200000</v>
       </c>
-      <c r="AS91" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT91" s="46">
-        <f>AT89/AT90</f>
-        <v>0.22481007334192055</v>
+      <c r="AS91" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT91" s="44">
+        <f>AL25</f>
+        <v>3804100000</v>
       </c>
     </row>
     <row r="92" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14916,14 +15067,14 @@
         <v>4249700000</v>
       </c>
       <c r="AS92" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AT92" s="46">
-        <f>AT88*(1-AT91)</f>
-        <v>1.816851390604874E-2</v>
+        <f>AT90/AT91</f>
+        <v>0.22481007334192055</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -15038,12 +15189,15 @@
       <c r="AL93" s="1">
         <v>-519200000</v>
       </c>
-      <c r="AS93" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT93" s="70"/>
+      <c r="AS93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT93" s="46">
+        <f>AT89*(1-AT92)</f>
+        <v>1.816851390604874E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -15158,13 +15312,10 @@
       <c r="AL94" s="10">
         <v>-7014400000</v>
       </c>
-      <c r="AS94" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT94" s="65">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AS94" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT94" s="74"/>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15281,12 +15432,12 @@
       <c r="AL95" s="1">
         <v>-900000</v>
       </c>
-      <c r="AS95" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT95" s="49" cm="1">
-        <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.8135</v>
+      <c r="AS95" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT95" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15404,11 +15555,12 @@
       <c r="AL96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS96" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT96" s="47">
-        <v>8.4000000000000005E-2</v>
+      <c r="AS96" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT96" s="49" cm="1">
+        <f t="array" ref="AT96">_FV(A1,"Beta")</f>
+        <v>0.82489999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15526,15 +15678,14 @@
       <c r="AL97" s="1">
         <v>-1969400000</v>
       </c>
-      <c r="AS97" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT97" s="46">
-        <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>7.562988000000001E-2</v>
+      <c r="AS97" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT97" s="47">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15649,12 +15800,15 @@
       <c r="AL98" s="1">
         <v>-1659000000</v>
       </c>
-      <c r="AS98" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT98" s="70"/>
+      <c r="AS98" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT98" s="46">
+        <f>(AT95)+((AT96)*(AT97-AT95))</f>
+        <v>7.7875001999999999E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15769,13 +15923,10 @@
       <c r="AL99" s="1">
         <v>17282700000</v>
       </c>
-      <c r="AS99" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT99" s="44">
-        <f>AT86+AT87</f>
-        <v>3494400000</v>
-      </c>
+      <c r="AS99" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT99" s="74"/>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -15892,12 +16043,12 @@
       <c r="AL100" s="10">
         <v>13653400000</v>
       </c>
-      <c r="AS100" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT100" s="46">
-        <f>AT99/AT103</f>
-        <v>3.6232838752193533E-2</v>
+      <c r="AS100" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT100" s="44">
+        <f>AT87+AT88</f>
+        <v>3494400000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16015,12 +16166,12 @@
       <c r="AL101" s="1">
         <v>-98700000</v>
       </c>
-      <c r="AS101" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT101" s="50" cm="1">
-        <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>92948498772</v>
+      <c r="AS101" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT101" s="46">
+        <f>AT100/AT104</f>
+        <v>3.3320470167212735E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16138,12 +16289,12 @@
       <c r="AL102" s="10">
         <v>9639800000</v>
       </c>
-      <c r="AS102" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT102" s="46">
-        <f>AT101/AT103</f>
-        <v>0.96376716124780648</v>
+      <c r="AS102" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT102" s="50" cm="1">
+        <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
+        <v>101378069760</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16262,14 +16413,14 @@
         <v>13143200000</v>
       </c>
       <c r="AS103" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT103" s="51">
-        <f>AT99+AT101</f>
-        <v>96442898772</v>
+        <v>142</v>
+      </c>
+      <c r="AT103" s="46">
+        <f>AT102/AT104</f>
+        <v>0.96667952983278727</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16384,12 +16535,22 @@
       <c r="AL104" s="11">
         <v>22783000000</v>
       </c>
-      <c r="AS104" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT104" s="70"/>
+      <c r="AM104" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN104" s="76"/>
+      <c r="AO104" s="76"/>
+      <c r="AP104" s="76"/>
+      <c r="AQ104" s="76"/>
+      <c r="AS104" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT104" s="51">
+        <f>AT100+AT102</f>
+        <v>104872469760</v>
+      </c>
     </row>
-    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>158</v>
       </c>
@@ -16397,7 +16558,7 @@
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="1">
-        <f t="shared" ref="E105:AK105" si="20">((E22*(1-$AT$91))+E77+E88-E81)</f>
+        <f t="shared" ref="E105:AL105" si="20">((E22*(1-$AT$92))+E77+E88-E81)</f>
         <v>282990344.62816441</v>
       </c>
       <c r="F105" s="1">
@@ -16529,216 +16690,219 @@
         <v>3519556205.1470785</v>
       </c>
       <c r="AL105" s="1">
-        <f>((AL22*(1-$AT$91))+AL77+AL88-AL81)</f>
+        <f t="shared" si="20"/>
         <v>4574271520.2018871</v>
       </c>
       <c r="AM105" s="28">
-        <f>AL105*(1+$AT$106)</f>
+        <f>AL105*(1+$AT$107)</f>
         <v>4904060586.2480507</v>
       </c>
       <c r="AN105" s="28">
-        <f>AM105*(1+$AT$106)</f>
+        <f>AM105*(1+$AT$107)</f>
         <v>5257626296.8600798</v>
       </c>
       <c r="AO105" s="28">
-        <f t="shared" ref="AO105:AQ105" si="21">AN105*(1+$AT$106)</f>
+        <f>AN105*(1+$AT$107)</f>
         <v>5636682865.4095373</v>
       </c>
       <c r="AP105" s="28">
-        <f t="shared" si="21"/>
+        <f>AO105*(1+$AT$107)</f>
         <v>6043068094.0895748</v>
       </c>
       <c r="AQ105" s="28">
-        <f t="shared" si="21"/>
+        <f>AP105*(1+$AT$107)</f>
         <v>6478752284.2390947</v>
       </c>
       <c r="AR105" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS105" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT105" s="53">
-        <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.3547891587837116E-2</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AS105" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT105" s="74"/>
     </row>
-    <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="15" t="e">
-        <f t="shared" ref="B106:AL106" si="22">(B107/A107)-1</f>
+        <f t="shared" ref="B106:AL106" si="21">(B107/A107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="C106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.98428835489833633</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.48858872845831391</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.19242803504380479</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.20230910522172663</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.31052631578947376</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-9.3624497991967925E-2</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.33093325948490726</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.13150228880565962</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.42055902905479958</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.80545858457632491</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.58918790648620134</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.44412552304032005</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-2.2467521127925605E-2</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.12148314951844563</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.17010810217902084</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4.1629835416929772E-2</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.13270831649559534</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.3041740991794506</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.54768252666119777</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.13290929569999332</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.11209597310307928</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1.8757729833722703E-2</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.16280372522932574</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.22058292183548112</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.12315537356099826</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8.0071541583545347E-2</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-6.1269982803643042E-2</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.12307483547052045</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.23506313055035344</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.7859518685188887E-2</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.1357338109152606</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.3699062162835061E-2</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-1.5961969544716736E-2</v>
       </c>
-      <c r="AM106" s="33">
-        <v>3894000000</v>
-      </c>
-      <c r="AN106" s="33">
-        <v>4276000000</v>
-      </c>
-      <c r="AO106" s="33">
-        <v>4613000000</v>
-      </c>
-      <c r="AP106" s="33">
-        <v>4913000000</v>
-      </c>
-      <c r="AQ106" s="33">
-        <v>5276000000</v>
-      </c>
-      <c r="AR106" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS106" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT106" s="55">
-        <f>(SUM(AM4:AQ4)/5)</f>
-        <v>7.2096521728034269E-2</v>
+      <c r="AM106" s="66">
+        <f>(AM107/AL107)-1</f>
+        <v>0.5293979026746789</v>
+      </c>
+      <c r="AN106" s="66">
+        <f>(AN107/AM107)-1</f>
+        <v>9.8099640472521843E-2</v>
+      </c>
+      <c r="AO106" s="66">
+        <f>(AO107/AN107)-1</f>
+        <v>7.8811973807296543E-2</v>
+      </c>
+      <c r="AP106" s="66">
+        <f>(AP107/AO107)-1</f>
+        <v>6.5033600693691795E-2</v>
+      </c>
+      <c r="AQ106" s="66">
+        <f>(AQ107/AP107)-1</f>
+        <v>7.3885609607164726E-2</v>
+      </c>
+      <c r="AR106" s="67">
+        <f>SUM(AM106:AQ106)/5</f>
+        <v>0.16904574545107076</v>
+      </c>
+      <c r="AS106" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT106" s="53">
+        <f>(AT101*AT93)+(AT103*AT98)</f>
+        <v>7.5885553744676454E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16856,151 +17020,179 @@
       <c r="AL107" s="1">
         <v>2546100000</v>
       </c>
-      <c r="AM107" s="29"/>
-      <c r="AN107" s="29"/>
-      <c r="AO107" s="29"/>
-      <c r="AP107" s="29"/>
-      <c r="AQ107" s="32">
-        <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>111393097066.13214</v>
-      </c>
-      <c r="AR107" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS107" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT107" s="57">
-        <v>2.5000000000000001E-2</v>
+      <c r="AM107" s="33">
+        <v>3894000000</v>
+      </c>
+      <c r="AN107" s="33">
+        <v>4276000000</v>
+      </c>
+      <c r="AO107" s="33">
+        <v>4613000000</v>
+      </c>
+      <c r="AP107" s="33">
+        <v>4913000000</v>
+      </c>
+      <c r="AQ107" s="33">
+        <v>5276000000</v>
+      </c>
+      <c r="AR107" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS107" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT107" s="55">
+        <f>(SUM(AM4:AQ4)/5)</f>
+        <v>7.2096521728034269E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="32">
-        <f t="shared" ref="AM108:AP108" si="23">AM107+AM106</f>
-        <v>3894000000</v>
-      </c>
-      <c r="AN108" s="32">
-        <f t="shared" si="23"/>
-        <v>4276000000</v>
-      </c>
-      <c r="AO108" s="32">
-        <f t="shared" si="23"/>
-        <v>4613000000</v>
-      </c>
-      <c r="AP108" s="32">
-        <f t="shared" si="23"/>
-        <v>4913000000</v>
-      </c>
+      <c r="AM108" s="29"/>
+      <c r="AN108" s="29"/>
+      <c r="AO108" s="29"/>
+      <c r="AP108" s="29"/>
       <c r="AQ108" s="32">
-        <f>AQ107+AQ106</f>
-        <v>116669097066.13214</v>
+        <f>AQ107*(1+AT108)/(AT109-AT108)</f>
+        <v>106275742367.5627</v>
       </c>
       <c r="AR108" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS108" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT108" s="55">
-        <f>AT105</f>
-        <v>7.3547891587837116E-2</v>
+        <v>146</v>
+      </c>
+      <c r="AS108" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT108" s="57">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="67" t="s">
+      <c r="AM109" s="32">
+        <f t="shared" ref="AM109:AP109" si="22">AM108+AM107</f>
+        <v>3894000000</v>
+      </c>
+      <c r="AN109" s="32">
+        <f t="shared" si="22"/>
+        <v>4276000000</v>
+      </c>
+      <c r="AO109" s="32">
+        <f t="shared" si="22"/>
+        <v>4613000000</v>
+      </c>
+      <c r="AP109" s="32">
+        <f t="shared" si="22"/>
+        <v>4913000000</v>
+      </c>
+      <c r="AQ109" s="32">
+        <f>AQ108+AQ107</f>
+        <v>111551742367.5627</v>
+      </c>
+      <c r="AR109" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS109" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT109" s="55">
+        <f>AT106</f>
+        <v>7.5885553744676454E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM110" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="AN109" s="67"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN110" s="50">
-        <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>96582551352.272308</v>
-      </c>
+      <c r="AN110" s="75"/>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM111" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN111" s="50">
-        <f>AL40</f>
-        <v>1436300000</v>
+        <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
+        <v>92067372893.897781</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM112" s="59" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AN112" s="50">
-        <f>AT99</f>
-        <v>3494400000</v>
+        <f>AL40</f>
+        <v>1436300000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM113" s="59" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AN113" s="50">
-        <f>AN110+AN111-AN112</f>
-        <v>94524451352.272308</v>
+        <f>AT100</f>
+        <v>3494400000</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM114" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN114" s="50">
+        <f>AN111+AN112-AN113</f>
+        <v>90009272893.897781</v>
+      </c>
+    </row>
+    <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
+      <c r="AM115" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="AN114" s="59">
+      <c r="AN115" s="59">
         <f>AL34*(1+(5*AR16))</f>
         <v>393061905.34769142</v>
       </c>
     </row>
-    <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="60" t="s">
+    <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
+      <c r="AM116" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="AN115" s="61">
-        <f>AN113/AN114</f>
-        <v>240.48235167602584</v>
-      </c>
-    </row>
-    <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN116" s="62" cm="1">
-        <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>224.99</v>
+      <c r="AN116" s="61">
+        <f>AN114/AN115</f>
+        <v>228.99515742762742</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN117" s="63">
-        <f>AN115/AN116-1</f>
-        <v>6.8857956691523281E-2</v>
+      <c r="AM117" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN117" s="62" cm="1">
+        <f t="array" ref="AN117">_FV(A1,"Price")</f>
+        <v>246.08</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM118" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN118" s="63">
+        <f>AN116/AN117-1</f>
+        <v>-6.9428001350668844E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="39:40" ht="20" x14ac:dyDescent="0.25">
+      <c r="AM119" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="AN118" s="64" t="str">
-        <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
-        <v>BUY</v>
+      <c r="AN119" s="64" t="str">
+        <f>IF(AN116&gt;AN117,"BUY","SELL")</f>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AM109:AN109"/>
-    <mergeCell ref="AS83:AT83"/>
+  <mergeCells count="7">
     <mergeCell ref="AS84:AT84"/>
-    <mergeCell ref="AS93:AT93"/>
-    <mergeCell ref="AS98:AT98"/>
-    <mergeCell ref="AS104:AT104"/>
+    <mergeCell ref="AS85:AT85"/>
+    <mergeCell ref="AM110:AN110"/>
+    <mergeCell ref="AM104:AQ104"/>
+    <mergeCell ref="AS105:AT105"/>
+    <mergeCell ref="AS99:AT99"/>
+    <mergeCell ref="AS94:AT94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ADP" display="ROIC.AI | ADP" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17079,7 +17271,7 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/8670/000000867022000038/0000008670-22-000038-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/8670/000000867022000038/0000008670-22-000038-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NASDAQGS:ADP/explorer/revenue_proj" xr:uid="{74B9FE5B-0CE7-9E42-95B6-485D86EEF7CE}"/>
-    <hyperlink ref="AR106" r:id="rId77" xr:uid="{A9FD6844-4797-4E4B-957C-4D61C7944161}"/>
+    <hyperlink ref="AR107" r:id="rId77" xr:uid="{A9FD6844-4797-4E4B-957C-4D61C7944161}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId78"/>

--- a/Technology/Software/Automatic Data Processing.xlsx
+++ b/Technology/Software/Automatic Data Processing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE33969-79C3-4349-9083-6BB0DF1F4E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E433A-187A-4B4A-8021-98A2B9EE0B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2879,13 +2879,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2901,14 +2903,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9530000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2918,6 +2920,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3045,11 +3049,9 @@
     <v>Powered by Refinitiv</v>
     <v>274.92</v>
     <v>201.46</v>
-    <v>0.82489999999999997</v>
-    <v>-2.1800000000000002</v>
-    <v>-8.7810000000000006E-3</v>
-    <v>0.02</v>
-    <v>8.1269999999999999E-5</v>
+    <v>0.8397</v>
+    <v>0.51</v>
+    <v>2.336E-3</v>
     <v>USD</v>
     <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. ADP serves over one million clients in 140 countries and territories.</v>
     <v>63000</v>
@@ -3057,25 +3059,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Adp Boulvard, ROSELAND, NJ, 07068 US</v>
-    <v>249.5</v>
+    <v>222.46</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.958613125003</v>
+    <v>45225.998905253909</v>
     <v>0</v>
-    <v>245.64</v>
-    <v>101378069760</v>
+    <v>217.12</v>
+    <v>90155952480</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
-    <v>248.08</v>
-    <v>29.981100000000001</v>
-    <v>248.26</v>
-    <v>246.08</v>
-    <v>246.1</v>
+    <v>218.3</v>
+    <v>25.999400000000001</v>
+    <v>218.33</v>
+    <v>218.84</v>
     <v>411972000</v>
     <v>ADP</v>
     <v>AUTOMATIC DATA PROCESSING, INC. (XNAS:ADP)</v>
-    <v>1156833</v>
-    <v>1356352</v>
+    <v>10</v>
+    <v>1456150</v>
     <v>1961</v>
   </rv>
   <rv s="2">
@@ -3107,8 +3108,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3129,7 +3128,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3146,7 +3144,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3157,16 +3155,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3232,19 +3227,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3289,9 +3278,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3299,9 +3285,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5839,15 +5822,15 @@
       </c>
       <c r="AS16" s="39">
         <f>AT102/AL3</f>
-        <v>6.3177683457451783</v>
+        <v>5.6184185012307983</v>
       </c>
       <c r="AT16" s="39">
         <f>AT102/AL28</f>
-        <v>34.378266390857611</v>
+        <v>30.572739828410594</v>
       </c>
       <c r="AU16" s="40">
         <f>AT102/AL107</f>
-        <v>39.817002380110758</v>
+        <v>35.409431082832569</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6230,15 +6213,15 @@
       </c>
       <c r="AS19" s="39">
         <f>AT102/AM3</f>
-        <v>5.6556803213389122</v>
+        <v>5.0296207799163177</v>
       </c>
       <c r="AT19" s="39">
         <f>AT102/AM28</f>
-        <v>29.905035327433627</v>
+        <v>26.594676247787611</v>
       </c>
       <c r="AU19" s="40">
         <f>AT102/AM107</f>
-        <v>26.034429830508476</v>
+        <v>23.152530169491527</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,11 +6661,11 @@
       </c>
       <c r="AT22" s="42">
         <f>AL98/AT102*-1</f>
-        <v>1.6364485967502406E-2</v>
+        <v>1.8401447207471177E-2</v>
       </c>
       <c r="AU22" s="41">
         <f>AM107/AT102</f>
-        <v>3.8410674115403477E-2</v>
+        <v>4.319182364429943E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15437,7 +15420,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9530000000000005E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15560,7 +15543,7 @@
       </c>
       <c r="AT96" s="49" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>0.82489999999999997</v>
+        <v>0.8397</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15805,7 +15788,7 @@
       </c>
       <c r="AT98" s="46">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>7.7875001999999999E-2</v>
+        <v>7.847445900000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16171,7 +16154,7 @@
       </c>
       <c r="AT101" s="46">
         <f>AT100/AT104</f>
-        <v>3.3320470167212735E-2</v>
+        <v>3.7313260521323346E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16294,7 +16277,7 @@
       </c>
       <c r="AT102" s="50" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>101378069760</v>
+        <v>90155952480</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16417,7 +16400,7 @@
       </c>
       <c r="AT103" s="46">
         <f>AT102/AT104</f>
-        <v>0.96667952983278727</v>
+        <v>0.96268673947867667</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16547,7 +16530,7 @@
       </c>
       <c r="AT104" s="51">
         <f>AT100+AT102</f>
-        <v>104872469760</v>
+        <v>93650352480</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -16902,7 +16885,7 @@
       </c>
       <c r="AT106" s="53">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>7.5885553744676454E-2</v>
+        <v>7.6224247559724789E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17053,7 +17036,7 @@
       <c r="AP108" s="29"/>
       <c r="AQ108" s="32">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>106275742367.5627</v>
+        <v>105573049046.63893</v>
       </c>
       <c r="AR108" s="30" t="s">
         <v>146</v>
@@ -17084,7 +17067,7 @@
       </c>
       <c r="AQ109" s="32">
         <f>AQ108+AQ107</f>
-        <v>111551742367.5627</v>
+        <v>110849049046.63893</v>
       </c>
       <c r="AR109" s="30" t="s">
         <v>143</v>
@@ -17094,7 +17077,7 @@
       </c>
       <c r="AT109" s="55">
         <f>AT106</f>
-        <v>7.5885553744676454E-2</v>
+        <v>7.6224247559724789E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17109,7 +17092,7 @@
       </c>
       <c r="AN111" s="50">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>92067372893.897781</v>
+        <v>91447422187.846497</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -17136,7 +17119,7 @@
       </c>
       <c r="AN114" s="50">
         <f>AN111+AN112-AN113</f>
-        <v>90009272893.897781</v>
+        <v>89389322187.846497</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17154,7 +17137,7 @@
       </c>
       <c r="AN116" s="61">
         <f>AN114/AN115</f>
-        <v>228.99515742762742</v>
+        <v>227.41792316092102</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17163,7 +17146,7 @@
       </c>
       <c r="AN117" s="62" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price")</f>
-        <v>246.08</v>
+        <v>218.84</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17172,7 +17155,7 @@
       </c>
       <c r="AN118" s="63">
         <f>AN116/AN117-1</f>
-        <v>-6.9428001350668844E-2</v>
+        <v>3.91972361584767E-2</v>
       </c>
     </row>
     <row r="119" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17181,7 +17164,7 @@
       </c>
       <c r="AN119" s="64" t="str">
         <f>IF(AN116&gt;AN117,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Software/Automatic Data Processing.xlsx
+++ b/Technology/Software/Automatic Data Processing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E433A-187A-4B4A-8021-98A2B9EE0B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D493A-B69F-9946-8EF2-645091F391ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2884,13 +2884,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2907,7 +2904,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9530000000000005E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2919,9 +2916,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3049,9 +3043,9 @@
     <v>Powered by Refinitiv</v>
     <v>274.92</v>
     <v>201.46</v>
-    <v>0.8397</v>
-    <v>0.51</v>
-    <v>2.336E-3</v>
+    <v>0.83850000000000002</v>
+    <v>-7.85</v>
+    <v>-3.5973000000000005E-2</v>
     <v>USD</v>
     <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. ADP serves over one million clients in 140 countries and territories.</v>
     <v>63000</v>
@@ -3059,24 +3053,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Adp Boulvard, ROSELAND, NJ, 07068 US</v>
-    <v>222.46</v>
+    <v>215</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.998905253909</v>
+    <v>45231.962107279687</v>
     <v>0</v>
-    <v>217.12</v>
-    <v>90155952480</v>
+    <v>205.53</v>
+    <v>86609329000</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
-    <v>218.3</v>
-    <v>25.999400000000001</v>
-    <v>218.33</v>
-    <v>218.84</v>
-    <v>411972000</v>
+    <v>215</v>
+    <v>24.993099999999998</v>
+    <v>218.22</v>
+    <v>210.37</v>
+    <v>411700000</v>
     <v>ADP</v>
     <v>AUTOMATIC DATA PROCESSING, INC. (XNAS:ADP)</v>
-    <v>10</v>
-    <v>1456150</v>
+    <v>88</v>
+    <v>1616722</v>
     <v>1961</v>
   </rv>
   <rv s="2">
@@ -3646,10 +3640,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR132" sqref="AR132"/>
+      <selection pane="bottomRight" activeCell="AN131" sqref="AN131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5822,15 +5816,15 @@
       </c>
       <c r="AS16" s="39">
         <f>AT102/AL3</f>
-        <v>5.6184185012307983</v>
+        <v>5.3973968778238248</v>
       </c>
       <c r="AT16" s="39">
         <f>AT102/AL28</f>
-        <v>30.572739828410594</v>
+        <v>29.370046118891789</v>
       </c>
       <c r="AU16" s="40">
         <f>AT102/AL107</f>
-        <v>35.409431082832569</v>
+        <v>34.016467931345979</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6213,15 +6207,15 @@
       </c>
       <c r="AS19" s="39">
         <f>AT102/AM3</f>
-        <v>5.0296207799163177</v>
+        <v>4.8317617294281732</v>
       </c>
       <c r="AT19" s="39">
         <f>AT102/AM28</f>
-        <v>26.594676247787611</v>
+        <v>25.548474631268437</v>
       </c>
       <c r="AU19" s="40">
         <f>AT102/AM107</f>
-        <v>23.152530169491527</v>
+        <v>22.241738315356958</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,11 +6655,11 @@
       </c>
       <c r="AT22" s="42">
         <f>AL98/AT102*-1</f>
-        <v>1.8401447207471177E-2</v>
+        <v>1.9154980406325513E-2</v>
       </c>
       <c r="AU22" s="41">
         <f>AM107/AT102</f>
-        <v>4.319182364429943E-2</v>
+        <v>4.4960514588445778E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15420,7 +15414,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9530000000000005E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15543,7 +15537,7 @@
       </c>
       <c r="AT96" s="49" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>0.8397</v>
+        <v>0.83850000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15788,7 +15782,7 @@
       </c>
       <c r="AT98" s="46">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>7.847445900000001E-2</v>
+        <v>7.8307125000000005E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16154,7 +16148,7 @@
       </c>
       <c r="AT101" s="46">
         <f>AT100/AT104</f>
-        <v>3.7313260521323346E-2</v>
+        <v>3.8781968724069124E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16277,7 +16271,7 @@
       </c>
       <c r="AT102" s="50" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>90155952480</v>
+        <v>86609329000</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16400,7 +16394,7 @@
       </c>
       <c r="AT103" s="46">
         <f>AT102/AT104</f>
-        <v>0.96268673947867667</v>
+        <v>0.96121803127593086</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16530,7 +16524,7 @@
       </c>
       <c r="AT104" s="51">
         <f>AT100+AT102</f>
-        <v>93650352480</v>
+        <v>90103729000</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -16885,7 +16879,7 @@
       </c>
       <c r="AT106" s="53">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>7.6224247559724789E-2</v>
+        <v>7.5974831265445436E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17036,7 +17030,7 @@
       <c r="AP108" s="29"/>
       <c r="AQ108" s="32">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>105573049046.63893</v>
+        <v>106089610612.71585</v>
       </c>
       <c r="AR108" s="30" t="s">
         <v>146</v>
@@ -17067,7 +17061,7 @@
       </c>
       <c r="AQ109" s="32">
         <f>AQ108+AQ107</f>
-        <v>110849049046.63893</v>
+        <v>111365610612.71585</v>
       </c>
       <c r="AR109" s="30" t="s">
         <v>143</v>
@@ -17077,7 +17071,7 @@
       </c>
       <c r="AT109" s="55">
         <f>AT106</f>
-        <v>7.6224247559724789E-2</v>
+        <v>7.5974831265445436E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17092,7 +17086,7 @@
       </c>
       <c r="AN111" s="50">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>91447422187.846497</v>
+        <v>91903156943.149796</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -17119,7 +17113,7 @@
       </c>
       <c r="AN114" s="50">
         <f>AN111+AN112-AN113</f>
-        <v>89389322187.846497</v>
+        <v>89845056943.149796</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17137,7 +17131,7 @@
       </c>
       <c r="AN116" s="61">
         <f>AN114/AN115</f>
-        <v>227.41792316092102</v>
+        <v>228.57737094536139</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17146,7 +17140,7 @@
       </c>
       <c r="AN117" s="62" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price")</f>
-        <v>218.84</v>
+        <v>210.37</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17155,7 +17149,7 @@
       </c>
       <c r="AN118" s="63">
         <f>AN116/AN117-1</f>
-        <v>3.91972361584767E-2</v>
+        <v>8.6549274827025569E-2</v>
       </c>
     </row>
     <row r="119" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Automatic Data Processing.xlsx
+++ b/Technology/Software/Automatic Data Processing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D493A-B69F-9946-8EF2-645091F391ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D0F619-BBA7-9647-9197-9E545E6FD068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2904,7 +2904,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3043,9 +3043,11 @@
     <v>Powered by Refinitiv</v>
     <v>274.92</v>
     <v>201.46</v>
-    <v>0.83850000000000002</v>
-    <v>-7.85</v>
-    <v>-3.5973000000000005E-2</v>
+    <v>0.83489999999999998</v>
+    <v>3.23</v>
+    <v>1.4533000000000001E-2</v>
+    <v>-0.3</v>
+    <v>-1.33E-3</v>
     <v>USD</v>
     <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. ADP serves over one million clients in 140 countries and territories.</v>
     <v>63000</v>
@@ -3053,24 +3055,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Adp Boulvard, ROSELAND, NJ, 07068 US</v>
-    <v>215</v>
+    <v>226.47</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45231.962107279687</v>
+    <v>45238.94865953672</v>
     <v>0</v>
-    <v>205.53</v>
-    <v>86609329000</v>
+    <v>223.28</v>
+    <v>92741006304</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
-    <v>215</v>
-    <v>24.993099999999998</v>
-    <v>218.22</v>
-    <v>210.37</v>
-    <v>411700000</v>
+    <v>224.06</v>
+    <v>26.404499999999999</v>
+    <v>222.25</v>
+    <v>225.48</v>
+    <v>225.18</v>
+    <v>411304800</v>
     <v>ADP</v>
     <v>AUTOMATIC DATA PROCESSING, INC. (XNAS:ADP)</v>
-    <v>88</v>
-    <v>1616722</v>
+    <v>1389184</v>
+    <v>1757635</v>
     <v>1961</v>
   </rv>
   <rv s="2">
@@ -3102,6 +3105,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3122,6 +3127,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3138,7 +3144,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3149,13 +3155,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3221,13 +3230,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3272,6 +3287,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3279,6 +3297,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3640,10 +3661,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN131" sqref="AN131"/>
+      <selection pane="bottomRight" activeCell="AO101" sqref="AO101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5816,15 +5837,15 @@
       </c>
       <c r="AS16" s="39">
         <f>AT102/AL3</f>
-        <v>5.3973968778238248</v>
+        <v>5.7795161751160693</v>
       </c>
       <c r="AT16" s="39">
         <f>AT102/AL28</f>
-        <v>29.370046118891789</v>
+        <v>31.449356134151717</v>
       </c>
       <c r="AU16" s="40">
         <f>AT102/AL107</f>
-        <v>34.016467931345979</v>
+        <v>36.424730491339695</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6207,15 +6228,15 @@
       </c>
       <c r="AS19" s="39">
         <f>AT102/AM3</f>
-        <v>4.8317617294281732</v>
+        <v>5.1738357770711296</v>
       </c>
       <c r="AT19" s="39">
         <f>AT102/AM28</f>
-        <v>25.548474631268437</v>
+        <v>27.357228998230088</v>
       </c>
       <c r="AU19" s="40">
         <f>AT102/AM107</f>
-        <v>22.241738315356958</v>
+        <v>23.816385799691833</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6655,11 +6676,11 @@
       </c>
       <c r="AT22" s="42">
         <f>AL98/AT102*-1</f>
-        <v>1.9154980406325513E-2</v>
+        <v>1.7888527050934598E-2</v>
       </c>
       <c r="AU22" s="41">
         <f>AM107/AT102</f>
-        <v>4.4960514588445778E-2</v>
+        <v>4.1987898936913397E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15414,7 +15435,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15537,7 +15558,7 @@
       </c>
       <c r="AT96" s="49" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>0.83850000000000002</v>
+        <v>0.83489999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15782,7 +15803,7 @@
       </c>
       <c r="AT98" s="46">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>7.8307125000000005E-2</v>
+        <v>7.7678320999999995E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16148,7 +16169,7 @@
       </c>
       <c r="AT101" s="46">
         <f>AT100/AT104</f>
-        <v>3.8781968724069124E-2</v>
+        <v>3.6310960115463822E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16271,7 +16292,7 @@
       </c>
       <c r="AT102" s="50" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>86609329000</v>
+        <v>92741006304</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16394,7 +16415,7 @@
       </c>
       <c r="AT103" s="46">
         <f>AT102/AT104</f>
-        <v>0.96121803127593086</v>
+        <v>0.96368903988453614</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16524,7 +16545,7 @@
       </c>
       <c r="AT104" s="51">
         <f>AT100+AT102</f>
-        <v>90103729000</v>
+        <v>96235406304</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -16879,7 +16900,7 @@
       </c>
       <c r="AT106" s="53">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>7.5974831265445436E-2</v>
+        <v>7.5517462768132579E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17030,7 +17051,7 @@
       <c r="AP108" s="29"/>
       <c r="AQ108" s="32">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>106089610612.71585</v>
+        <v>107050111063.99847</v>
       </c>
       <c r="AR108" s="30" t="s">
         <v>146</v>
@@ -17061,7 +17082,7 @@
       </c>
       <c r="AQ109" s="32">
         <f>AQ108+AQ107</f>
-        <v>111365610612.71585</v>
+        <v>112326111063.99847</v>
       </c>
       <c r="AR109" s="30" t="s">
         <v>143</v>
@@ -17071,7 +17092,7 @@
       </c>
       <c r="AT109" s="55">
         <f>AT106</f>
-        <v>7.5974831265445436E-2</v>
+        <v>7.5517462768132579E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17086,7 +17107,7 @@
       </c>
       <c r="AN111" s="50">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>91903156943.149796</v>
+        <v>92750574916.00563</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -17113,7 +17134,7 @@
       </c>
       <c r="AN114" s="50">
         <f>AN111+AN112-AN113</f>
-        <v>89845056943.149796</v>
+        <v>90692474916.00563</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17131,7 +17152,7 @@
       </c>
       <c r="AN116" s="61">
         <f>AN114/AN115</f>
-        <v>228.57737094536139</v>
+        <v>230.73331117087432</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17140,7 +17161,7 @@
       </c>
       <c r="AN117" s="62" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price")</f>
-        <v>210.37</v>
+        <v>225.48</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17149,7 +17170,7 @@
       </c>
       <c r="AN118" s="63">
         <f>AN116/AN117-1</f>
-        <v>8.6549274827025569E-2</v>
+        <v>2.3298346509111001E-2</v>
       </c>
     </row>
     <row r="119" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Automatic Data Processing.xlsx
+++ b/Technology/Software/Automatic Data Processing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D0F619-BBA7-9647-9197-9E545E6FD068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C805FED-CA90-4747-B0FC-FD7B050FA211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2887,6 +2887,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2904,7 +2905,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2916,6 +2917,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3043,11 +3045,11 @@
     <v>Powered by Refinitiv</v>
     <v>274.92</v>
     <v>201.46</v>
-    <v>0.83489999999999998</v>
-    <v>3.23</v>
-    <v>1.4533000000000001E-2</v>
-    <v>-0.3</v>
-    <v>-1.33E-3</v>
+    <v>0.80630000000000002</v>
+    <v>3.02</v>
+    <v>1.3134999999999999E-2</v>
+    <v>0.63</v>
+    <v>2.7050000000000004E-3</v>
     <v>USD</v>
     <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. ADP serves over one million clients in 140 countries and territories.</v>
     <v>63000</v>
@@ -3055,25 +3057,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Adp Boulvard, ROSELAND, NJ, 07068 US</v>
-    <v>226.47</v>
+    <v>233.31</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45238.94865953672</v>
+    <v>45261.985586990624</v>
     <v>0</v>
-    <v>223.28</v>
-    <v>92741006304</v>
+    <v>229.23</v>
+    <v>95809340112</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
-    <v>224.06</v>
-    <v>26.404499999999999</v>
-    <v>222.25</v>
-    <v>225.48</v>
-    <v>225.18</v>
+    <v>229.64</v>
+    <v>27.3157</v>
+    <v>229.92</v>
+    <v>232.94</v>
+    <v>233.57</v>
     <v>411304800</v>
     <v>ADP</v>
     <v>AUTOMATIC DATA PROCESSING, INC. (XNAS:ADP)</v>
-    <v>1389184</v>
-    <v>1757635</v>
+    <v>1647754</v>
+    <v>1804265</v>
     <v>1961</v>
   </rv>
   <rv s="2">
@@ -3664,7 +3666,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO101" sqref="AO101"/>
+      <selection pane="bottomRight" activeCell="AJ115" sqref="AJ115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5837,15 +5839,15 @@
       </c>
       <c r="AS16" s="39">
         <f>AT102/AL3</f>
-        <v>5.7795161751160693</v>
+        <v>5.9707313191038542</v>
       </c>
       <c r="AT16" s="39">
         <f>AT102/AL28</f>
-        <v>31.449356134151717</v>
+        <v>32.489857272881416</v>
       </c>
       <c r="AU16" s="40">
         <f>AT102/AL107</f>
-        <v>36.424730491339695</v>
+        <v>37.629841762695889</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6228,15 +6230,15 @@
       </c>
       <c r="AS19" s="39">
         <f>AT102/AM3</f>
-        <v>5.1738357770711296</v>
+        <v>5.3450120006694561</v>
       </c>
       <c r="AT19" s="39">
         <f>AT102/AM28</f>
-        <v>27.357228998230088</v>
+        <v>28.262342215929202</v>
       </c>
       <c r="AU19" s="40">
         <f>AT102/AM107</f>
-        <v>23.816385799691833</v>
+        <v>24.604350311248073</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6676,11 +6678,11 @@
       </c>
       <c r="AT22" s="42">
         <f>AL98/AT102*-1</f>
-        <v>1.7888527050934598E-2</v>
+        <v>1.7315639561452448E-2</v>
       </c>
       <c r="AU22" s="41">
         <f>AM107/AT102</f>
-        <v>4.1987898936913397E-2</v>
+        <v>4.0643219079141549E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15435,7 +15437,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15558,7 +15560,7 @@
       </c>
       <c r="AT96" s="49" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>0.83489999999999998</v>
+        <v>0.80630000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15803,7 +15805,7 @@
       </c>
       <c r="AT98" s="46">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>7.7678320999999995E-2</v>
+        <v>7.6002127000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16169,7 +16171,7 @@
       </c>
       <c r="AT101" s="46">
         <f>AT100/AT104</f>
-        <v>3.6310960115463822E-2</v>
+        <v>3.5189006940310921E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16292,7 +16294,7 @@
       </c>
       <c r="AT102" s="50" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>92741006304</v>
+        <v>95809340112</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16415,7 +16417,7 @@
       </c>
       <c r="AT103" s="46">
         <f>AT102/AT104</f>
-        <v>0.96368903988453614</v>
+        <v>0.96481099305968909</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16545,7 +16547,7 @@
       </c>
       <c r="AT104" s="51">
         <f>AT100+AT102</f>
-        <v>96235406304</v>
+        <v>99303740112</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -16900,7 +16902,7 @@
       </c>
       <c r="AT106" s="53">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>7.5517462768132579E-2</v>
+        <v>7.3967019587453692E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17051,7 +17053,7 @@
       <c r="AP108" s="29"/>
       <c r="AQ108" s="32">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>107050111063.99847</v>
+        <v>110439639691.39772</v>
       </c>
       <c r="AR108" s="30" t="s">
         <v>146</v>
@@ -17082,7 +17084,7 @@
       </c>
       <c r="AQ109" s="32">
         <f>AQ108+AQ107</f>
-        <v>112326111063.99847</v>
+        <v>115715639691.39772</v>
       </c>
       <c r="AR109" s="30" t="s">
         <v>143</v>
@@ -17092,7 +17094,7 @@
       </c>
       <c r="AT109" s="55">
         <f>AT106</f>
-        <v>7.5517462768132579E-2</v>
+        <v>7.3967019587453692E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17107,7 +17109,7 @@
       </c>
       <c r="AN111" s="50">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>92750574916.00563</v>
+        <v>95741239883.766006</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -17134,7 +17136,7 @@
       </c>
       <c r="AN114" s="50">
         <f>AN111+AN112-AN113</f>
-        <v>90692474916.00563</v>
+        <v>93683139883.766006</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17152,7 +17154,7 @@
       </c>
       <c r="AN116" s="61">
         <f>AN114/AN115</f>
-        <v>230.73331117087432</v>
+        <v>238.34194718233138</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17161,7 +17163,7 @@
       </c>
       <c r="AN117" s="62" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price")</f>
-        <v>225.48</v>
+        <v>232.94</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17170,7 +17172,7 @@
       </c>
       <c r="AN118" s="63">
         <f>AN116/AN117-1</f>
-        <v>2.3298346509111001E-2</v>
+        <v>2.3190294420586399E-2</v>
       </c>
     </row>
     <row r="119" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Automatic Data Processing.xlsx
+++ b/Technology/Software/Automatic Data Processing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C805FED-CA90-4747-B0FC-FD7B050FA211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE5A03F-50C0-EF42-8F73-A6F01110933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2886,6 +2886,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -2905,7 +2907,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2918,6 +2920,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3045,11 +3049,11 @@
     <v>Powered by Refinitiv</v>
     <v>274.92</v>
     <v>201.46</v>
-    <v>0.80630000000000002</v>
-    <v>3.02</v>
-    <v>1.3134999999999999E-2</v>
-    <v>0.63</v>
-    <v>2.7050000000000004E-3</v>
+    <v>0.80669999999999997</v>
+    <v>-0.72</v>
+    <v>-3.1310000000000001E-3</v>
+    <v>0.06</v>
+    <v>2.6169999999999996E-4</v>
     <v>USD</v>
     <v>Automatic Data Processing, Inc. (ADP) is a global technology company engaged in providing cloud-based human capital management (HCM) solutions that unite HR, payroll, talent, time, tax and benefits administration. Its segments include Employer Services and Professional Employer Organization (PEO). Its Employer Services segment serves clients ranging from single-employee small businesses to large enterprises with tens of thousands of employees around the world, offering a range of technology-based HCM solutions, including its cloud-based platforms, and human resource outsourcing (HRO) solutions (other than PEO) solutions. Its offerings include Payroll Services, Benefits Administration, Talent Management, HR Management, Workforce Management, Compliance Services, Insurance Services and Retirement Services. Its PEO business, called ADP TotalSource, provides clients with employment administration outsourcing solutions. ADP serves over one million clients in 140 countries and territories.</v>
     <v>63000</v>
@@ -3057,25 +3061,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Adp Boulvard, ROSELAND, NJ, 07068 US</v>
-    <v>233.31</v>
+    <v>232.58500000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.985586990624</v>
+    <v>45269.010297649998</v>
     <v>0</v>
-    <v>229.23</v>
-    <v>95809340112</v>
+    <v>228.27</v>
+    <v>94299851496</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
     <v>AUTOMATIC DATA PROCESSING, INC.</v>
-    <v>229.64</v>
-    <v>27.3157</v>
-    <v>229.92</v>
-    <v>232.94</v>
-    <v>233.57</v>
+    <v>229.19</v>
+    <v>27.324000000000002</v>
+    <v>229.99</v>
+    <v>229.27</v>
+    <v>229.33</v>
     <v>411304800</v>
     <v>ADP</v>
     <v>AUTOMATIC DATA PROCESSING, INC. (XNAS:ADP)</v>
-    <v>1647754</v>
-    <v>1804265</v>
+    <v>1772416</v>
+    <v>1691949</v>
     <v>1961</v>
   </rv>
   <rv s="2">
@@ -3663,10 +3667,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ115" sqref="AJ115"/>
+      <selection pane="bottomRight" activeCell="AN96" sqref="AN96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5839,15 +5843,15 @@
       </c>
       <c r="AS16" s="39">
         <f>AT102/AL3</f>
-        <v>5.9707313191038542</v>
+        <v>5.8766616705200514</v>
       </c>
       <c r="AT16" s="39">
         <f>AT102/AL28</f>
-        <v>32.489857272881416</v>
+        <v>31.977975345383022</v>
       </c>
       <c r="AU16" s="40">
         <f>AT102/AL107</f>
-        <v>37.629841762695889</v>
+        <v>37.03697871096972</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6230,15 +6234,15 @@
       </c>
       <c r="AS19" s="39">
         <f>AT102/AM3</f>
-        <v>5.3450120006694561</v>
+        <v>5.2608006413389123</v>
       </c>
       <c r="AT19" s="39">
         <f>AT102/AM28</f>
-        <v>28.262342215929202</v>
+        <v>27.817065338053098</v>
       </c>
       <c r="AU19" s="40">
         <f>AT102/AM107</f>
-        <v>24.604350311248073</v>
+        <v>24.216705571648689</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,11 +6682,11 @@
       </c>
       <c r="AT22" s="42">
         <f>AL98/AT102*-1</f>
-        <v>1.7315639561452448E-2</v>
+        <v>1.759281667660284E-2</v>
       </c>
       <c r="AU22" s="41">
         <f>AM107/AT102</f>
-        <v>4.0643219079141549E-2</v>
+        <v>4.1293808401863447E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15437,7 +15441,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15560,7 +15564,7 @@
       </c>
       <c r="AT96" s="49" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>0.80630000000000002</v>
+        <v>0.80669999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15805,7 +15809,7 @@
       </c>
       <c r="AT98" s="46">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>7.6002127000000003E-2</v>
+        <v>7.5728693000000014E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16171,7 +16175,7 @@
       </c>
       <c r="AT101" s="46">
         <f>AT100/AT104</f>
-        <v>3.5189006940310921E-2</v>
+        <v>3.5732161620388586E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16294,7 +16298,7 @@
       </c>
       <c r="AT102" s="50" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>95809340112</v>
+        <v>94299851496</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16417,7 +16421,7 @@
       </c>
       <c r="AT103" s="46">
         <f>AT102/AT104</f>
-        <v>0.96481099305968909</v>
+        <v>0.96426783837961139</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16547,7 +16551,7 @@
       </c>
       <c r="AT104" s="51">
         <f>AT100+AT102</f>
-        <v>99303740112</v>
+        <v>97794251496</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -16902,7 +16906,7 @@
       </c>
       <c r="AT106" s="53">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>7.3967019587453692E-2</v>
+        <v>7.3671943377716431E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17053,7 +17057,7 @@
       <c r="AP108" s="29"/>
       <c r="AQ108" s="32">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>110439639691.39772</v>
+        <v>111109185799.96355</v>
       </c>
       <c r="AR108" s="30" t="s">
         <v>146</v>
@@ -17084,7 +17088,7 @@
       </c>
       <c r="AQ109" s="32">
         <f>AQ108+AQ107</f>
-        <v>115715639691.39772</v>
+        <v>116385185799.96355</v>
       </c>
       <c r="AR109" s="30" t="s">
         <v>143</v>
@@ -17094,7 +17098,7 @@
       </c>
       <c r="AT109" s="55">
         <f>AT106</f>
-        <v>7.3967019587453692E-2</v>
+        <v>7.3671943377716431E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17109,7 +17113,7 @@
       </c>
       <c r="AN111" s="50">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>95741239883.766006</v>
+        <v>96332031477.444519</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -17136,7 +17140,7 @@
       </c>
       <c r="AN114" s="50">
         <f>AN111+AN112-AN113</f>
-        <v>93683139883.766006</v>
+        <v>94273931477.444519</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17154,7 +17158,7 @@
       </c>
       <c r="AN116" s="61">
         <f>AN114/AN115</f>
-        <v>238.34194718233138</v>
+        <v>239.8449969198935</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17163,7 +17167,7 @@
       </c>
       <c r="AN117" s="62" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price")</f>
-        <v>232.94</v>
+        <v>229.27</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -17172,7 +17176,7 @@
       </c>
       <c r="AN118" s="63">
         <f>AN116/AN117-1</f>
-        <v>2.3190294420586399E-2</v>
+        <v>4.6124643084108241E-2</v>
       </c>
     </row>
     <row r="119" spans="39:40" ht="20" x14ac:dyDescent="0.25">
